--- a/cat-zson/src/main/resources/excel/资源类型.xlsx
+++ b/cat-zson/src/main/resources/excel/资源类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -82,28 +89,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -111,32 +96,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,11 +110,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,36 +201,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -211,187 +211,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,11 +407,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,6 +429,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -446,17 +474,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,30 +502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,145 +510,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/cat-zson/src/main/resources/excel/资源类型.xlsx
+++ b/cat-zson/src/main/resources/excel/资源类型.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="资源类型" sheetId="1" r:id="rId1"/>
+    <sheet name="任务类型" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>代币</t>
   </si>
@@ -38,16 +38,25 @@
   <si>
     <t>活动道具</t>
   </si>
+  <si>
+    <t>主线任务</t>
+  </si>
+  <si>
+    <t>研习社任务</t>
+  </si>
+  <si>
+    <t>神器任务</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,6 +90,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -88,17 +121,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,7 +182,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,75 +200,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,13 +220,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,13 +322,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,37 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,108 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,9 +416,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,21 +440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -455,6 +451,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,11 +481,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,17 +491,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,145 +519,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,8 +1021,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1082,14 +1091,49 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1102,7 +1146,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/cat-zson/src/main/resources/excel/资源类型.xlsx
+++ b/cat-zson/src/main/resources/excel/资源类型.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="资源类型" sheetId="1" r:id="rId1"/>
     <sheet name="任务类型" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="属性类型" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>代币</t>
   </si>
@@ -39,6 +39,12 @@
     <t>活动道具</t>
   </si>
   <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t>cw.宠物基础.xlsx</t>
+  </si>
+  <si>
     <t>主线任务</t>
   </si>
   <si>
@@ -46,6 +52,24 @@
   </si>
   <si>
     <t>神器任务</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>体质</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>智慧</t>
+  </si>
+  <si>
+    <t>灵巧</t>
+  </si>
+  <si>
+    <t>精神</t>
   </si>
 </sst>
 </file>
@@ -54,8 +78,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -84,13 +108,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -98,24 +168,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,30 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,52 +232,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,25 +244,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,157 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +435,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,21 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -479,34 +521,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -519,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +555,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,13 +1043,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
@@ -1077,10 +1101,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" display="zy.资源代币.xlsx"/>
     <hyperlink ref="C2" r:id="rId2" display="dj.道具.xlsx"/>
+    <hyperlink ref="C6" r:id="rId3" display="cw.宠物基础.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1093,7 +1129,7 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1104,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1112,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1120,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1143,14 +1179,63 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
